--- a/实验结果/处理结果/result/3-15--3-5/radius38.xlsx
+++ b/实验结果/处理结果/result/3-15--3-5/radius38.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yuqwe\Documents\GitHub\lab\result\3-15--3-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\实验结果\处理结果\result\3-15--3-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,12 +112,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,7 +222,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -252,7 +259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -278,7 +284,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -446,11 +452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480886936"/>
-        <c:axId val="480887328"/>
+        <c:axId val="139853904"/>
+        <c:axId val="139854448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480886936"/>
+        <c:axId val="139853904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,15 +510,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480887328"/>
+        <c:crossAx val="139854448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480887328"/>
+        <c:axId val="139854448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,10 +572,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480886936"/>
+        <c:crossAx val="139853904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -607,7 +613,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -621,7 +627,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -658,7 +664,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -684,7 +689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -852,11 +857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480882232"/>
-        <c:axId val="480883016"/>
+        <c:axId val="139858256"/>
+        <c:axId val="139853360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480882232"/>
+        <c:axId val="139858256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,15 +915,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480883016"/>
+        <c:crossAx val="139853360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480883016"/>
+        <c:axId val="139853360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -973,10 +978,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480882232"/>
+        <c:crossAx val="139858256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1014,7 +1019,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1028,7 +1033,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1096,7 +1101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1588,11 +1593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="522671360"/>
-        <c:axId val="522673712"/>
+        <c:axId val="139847376"/>
+        <c:axId val="139855536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="522671360"/>
+        <c:axId val="139847376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1663,15 +1668,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522673712"/>
+        <c:crossAx val="139855536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522673712"/>
+        <c:axId val="139855536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1723,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1756,10 +1761,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522671360"/>
+        <c:crossAx val="139847376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,7 +1804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1829,7 +1834,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3577,16 +3582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3650,7 +3655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3918,9 +3923,9 @@
       <selection activeCell="A100" sqref="A100:B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>6.7323415463594696</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>6.7617059982433103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>6.8210373350704403</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>6.76211810099249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>6.7865016397871001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>9.4985234197969604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>9.3296636015773799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4046,7 +4051,7 @@
         <v>9.29371155948572</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>9.5362191195172699</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>9.4443055993901002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>9.4538694544311195</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>9.2489120358349997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>6.8085228374501803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>6.88119046962096</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>7.0031840833764498</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>6.9329625557035897</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4172,7 +4177,7 @@
         <v>6.97041681235374</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>10.251200269930701</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>9.9037915918567503</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>10.015226969634901</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>10.442160710830899</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>10.1184252744325</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>10.0665196007674</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>7.1771784368090303</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>7.21132126060877</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>7.1858025984600999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>7.2015061760317698</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>7.0798773376365398</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>10.655015487564301</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>10.308171407677399</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>10.813407065781799</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>10.7930286553008</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>10.618306536096799</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>11.0143935506029</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>7.2901854393766801</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>7.4569366766871399</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>7.47316838067802</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>7.3764384840130797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -4480,7 +4485,7 @@
         <v>7.4057337341294804</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>7.4407654126709897</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>7.5129126439908198</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>7.5728468996089298</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>7.5880229030194402</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>7.52051270742745</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4564,7 +4569,7 @@
         <v>7.6065046099386304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4578,7 +4583,7 @@
         <v>7.6170293212460596</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4592,7 +4597,7 @@
         <v>7.6738501686521801</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>7.6667384965014298</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>7.7412237136048203</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>7.78168622510365</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>7.6730876465153797</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>7.8629634631982102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>8.0668056962552299</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>8.1818498500052605</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -4704,7 +4709,7 @@
         <v>7.9493103573554098</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>7.9048498545736896</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>7.8813223934333498</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -4746,7 +4751,7 @@
         <v>7.6363911198707601</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>8.0183796095392506</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>7.9770244386120002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4788,7 +4793,7 @@
         <v>8.0754406148802502</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>8.0054652090516996</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>7.9484979085981902</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>8.3537951092028901</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>8.2994374274920002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>8.2237693836864505</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>8.2156986005226198</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4886,7 +4891,7 @@
         <v>8.4305731514777396</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>8.4774224081234308</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>8.4496777120903008</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>6.8145670087797798</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>6.7503884696264604</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>6.82458967543851</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>6.7475123471246299</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>6.7887816729147197</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>8.7474651397520198</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>8.5254010415289496</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>8.5829944300260994</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>8.4484622223485193</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>8.4390536936057305</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>8.5983777038636298</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>8.7549577516571802</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>8.8422312384103705</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>8.8558919760216295</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -5124,7 +5129,7 @@
         <v>8.8239730830991601</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>8.7752198531848897</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -5152,7 +5157,7 @@
         <v>8.9722338511655906</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>8.5795485184225608</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>9.0924831035509701</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>9.06543292501396</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>8.9956052472089194</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>9.1339105542705195</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -5236,7 +5241,7 @@
         <v>9.1445969396305191</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>9.3033190308840403</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>9.2679504351140505</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -5278,7 +5283,7 @@
         <v>9.4134625842762993</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -5292,7 +5297,7 @@
         <v>9.3937769569004406</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>9.4092908690701993</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>6.5209997671943398</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>50</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>6.8190247740891277</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5349,7 +5354,7 @@
         <v>7.0022879695134419</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>150</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>7.2755663569816553</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>200</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>7.5042933630600412</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>250</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>7.7007203959970836</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>300</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>7.890880561008303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>350</v>
       </c>
@@ -5414,7 +5419,7 @@
         <v>8.0924664795163732</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>400</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>8.2788796128973896</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>500</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>8.7056564231192812</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>600</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>8.9366005053557185</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>700</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>9.2601880019414349</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>800</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>9.6734259050659936</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>900</v>
       </c>
@@ -5492,7 +5497,7 @@
         <v>9.9998159272551241</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1000</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>10.123003427199865</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1500</v>
       </c>
@@ -5518,7 +5523,7 @@
         <v>11.304791246082297</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>2000</v>
       </c>
@@ -5532,6 +5537,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -5548,8 +5554,9 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5560,15 +5567,15 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -5579,7 +5586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>1101.2457929115326</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>50</v>
       </c>
@@ -5639,7 +5646,7 @@
         <v>1104.6379388710036</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100</v>
       </c>
@@ -5659,7 +5666,7 @@
         <v>1105.301120900406</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>150</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>1107.0156104619159</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200</v>
       </c>
@@ -5699,7 +5706,7 @@
         <v>1110.569063948418</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>250</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>1112.3553872561981</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>300</v>
       </c>
@@ -5739,7 +5746,7 @@
         <v>1112.333315784756</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>350</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>1112.43340256941</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>400</v>
       </c>
@@ -5779,7 +5786,7 @@
         <v>1116.3581388335981</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>500</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>1120.8950095643283</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>600</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>1124.142460515518</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>700</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>1125.505591458415</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>800</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>1127.5765012067161</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>900</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>1131.2186023312386</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -5899,7 +5906,7 @@
         <v>1141.0585811861872</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1500</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>1150.8732354972783</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -5928,6 +5935,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -5944,17 +5952,17 @@
       <selection activeCell="A4" sqref="A4:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>50</v>
       </c>
@@ -5978,7 +5986,7 @@
         <v>1101.2457929115326</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>1104.6379388710036</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>150</v>
       </c>
@@ -5994,7 +6002,7 @@
         <v>1105.301120900406</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>1107.0156104619159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>250</v>
       </c>
@@ -6010,7 +6018,7 @@
         <v>1110.569063948418</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>300</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>1112.3553872561981</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>350</v>
       </c>
@@ -6026,7 +6034,7 @@
         <v>1112.333315784756</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>400</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>1112.43340256941</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>500</v>
       </c>
@@ -6042,7 +6050,7 @@
         <v>1116.3581388335981</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>600</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>1120.8950095643283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>700</v>
       </c>
@@ -6058,7 +6066,7 @@
         <v>1124.142460515518</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>800</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>1125.505591458415</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>900</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>1127.5765012067161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -6082,7 +6090,7 @@
         <v>1131.2186023312386</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1500</v>
       </c>
@@ -6090,7 +6098,7 @@
         <v>1141.0585811861872</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -6099,6 +6107,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6115,9 +6124,9 @@
       <selection activeCell="J77" sqref="I61:J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>6.8377796257318399</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>6.9019955439826601</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6159,7 +6168,7 @@
         <v>6.8283541467684401</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6173,7 +6182,7 @@
         <v>6.8312843265165304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>6.8867004769620701</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6210,7 @@
         <v>9.6106208096138008</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6215,7 +6224,7 @@
         <v>9.5144167510151796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6229,7 +6238,7 @@
         <v>9.1908504114337504</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>9.6385037025414704</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>7.0267728579469697</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -6271,7 +6280,7 @@
         <v>7.0414712935605097</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -6285,7 +6294,7 @@
         <v>7.0606318611270602</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6299,7 +6308,7 @@
         <v>7.15636953686891</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>7.0401529859052303</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -6327,7 +6336,7 @@
         <v>10.206337576038401</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +6350,7 @@
         <v>10.373939270758701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>10.214999306885399</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -6369,7 +6378,7 @@
         <v>9.9344839091335206</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>10.049354658438601</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>7.3058046248895101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>7.3990475033628904</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>7.3600906731868703</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>7.3790503532593696</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>10.883098412461401</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>1092.6822647756758</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +6504,7 @@
         <v>1124.5119799402223</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>1095.6281014372125</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -6537,7 +6546,7 @@
         <v>1133.96915988867</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -6558,7 +6567,7 @@
         <v>1098.0809560759424</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>1145.8768413787379</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -6600,7 +6609,7 @@
         <v>1099.581039371056</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -6621,7 +6630,7 @@
         <v>1102.0936394940425</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>1104.22486713689</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6672,7 @@
         <v>1105.3574217468099</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>1108.3897686005416</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6714,7 @@
         <v>1109.637018836424</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -6722,7 +6731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +6745,7 @@
         <v>7.7902941247971196</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +6759,7 @@
         <v>7.7944738013365402</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -6764,7 +6773,7 @@
         <v>7.7775188314106796</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>7.7790811354573997</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>8.1154964381341497</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>8.0504187779341194</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>7.9759342736062102</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6834,7 +6843,7 @@
         <v>8.2900529796370002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6857,7 @@
         <v>8.1921486502656098</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -6862,7 +6871,7 @@
         <v>8.3109022087763904</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +6885,7 @@
         <v>8.2538785810928097</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -6890,7 +6899,7 @@
         <v>8.3324436133476194</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -6904,7 +6913,7 @@
         <v>8.3439959748258907</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>8.2159865846624491</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6932,7 +6941,7 @@
         <v>8.3755508570002206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6946,7 +6955,7 @@
         <v>8.3176777048657904</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6960,7 +6969,7 @@
         <v>8.5611124189072498</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6974,7 +6983,7 @@
         <v>8.3815304047148107</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -6988,7 +6997,7 @@
         <v>8.4539346071637702</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>6.8801316538029997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7016,7 +7025,7 @@
         <v>6.8617494619060597</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +7039,7 @@
         <v>6.94390710433807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7044,7 +7053,7 @@
         <v>6.9546638959348197</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v>1092.6822647756758</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>1124.5119799402223</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -7104,7 +7113,7 @@
         <v>1095.6281014372125</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -7124,7 +7133,7 @@
         <v>1133.96915988867</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -7144,7 +7153,7 @@
         <v>1098.0809560759424</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>1145.8768413787379</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -7184,7 +7193,7 @@
         <v>1099.581039371056</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -7204,7 +7213,7 @@
         <v>1102.0936394940425</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7233,7 @@
         <v>1104.22486713689</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -7244,7 +7253,7 @@
         <v>1105.3574217468099</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>1108.3897686005416</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -7284,7 +7293,7 @@
         <v>1109.637018836424</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>1095.634027237752</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -7326,7 +7335,7 @@
         <v>1113.5037290704049</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>1117.1550341827767</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -7368,7 +7377,7 @@
         <v>1119.701246509838</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -7389,7 +7398,7 @@
         <v>1122.48902037823</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -7403,7 +7412,7 @@
         <v>9.3847212910949196</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -7417,7 +7426,7 @@
         <v>9.1692758771546501</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>9.3602899303523799</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -7446,6 +7455,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
